--- a/NSGA-II_results/delay_average_results.xlsx
+++ b/NSGA-II_results/delay_average_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441E887B-65D1-4705-8706-F05F97FBA97F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A2B9E9-7EDD-4F1E-B856-9B1AE041B884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{9B589974-B20C-469C-AD6E-9534666D6263}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.4149150285714296E-2</v>
+        <v>7.8178681285714285E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -479,52 +479,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.4149150285714296E-2</v>
+        <v>7.8178681285714285E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.3734930809523804E-2</v>
+        <v>6.3442586714285709E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.372543E-2</v>
+        <v>6.3016846142857144E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.3985316476190476E-2</v>
+        <v>6.2951699380952381E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6.3067284380952382E-2</v>
+        <v>6.2927803619047623E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6.3625768142857142E-2</v>
+        <v>6.5036156476190474E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6.3425571238095238E-2</v>
+        <v>6.7604472285714284E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6.3364697666666664E-2</v>
+        <v>6.8259475428571428E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>6.3225491952380961E-2</v>
+        <v>6.9514804571428571E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>6.3542088476190473E-2</v>
+        <v>6.9077050190476191E-2</v>
       </c>
     </row>
   </sheetData>
@@ -545,12 +545,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.4149150285714296E-2</v>
+        <v>7.8178681285714285E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.3734930809523804E-2</v>
+        <v>6.3442586714285709E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -611,17 +611,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.4149150285714296E-2</v>
+        <v>7.8178681285714285E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.3734930809523804E-2</v>
+        <v>6.3442586714285709E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.372543E-2</v>
+        <v>6.3016846142857144E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -677,22 +677,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.4149150285714296E-2</v>
+        <v>7.8178681285714285E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.3734930809523804E-2</v>
+        <v>6.3442586714285709E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.372543E-2</v>
+        <v>6.3016846142857144E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.3985316476190476E-2</v>
+        <v>6.2951699380952381E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -743,27 +743,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.4149150285714296E-2</v>
+        <v>7.8178681285714285E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.3734930809523804E-2</v>
+        <v>6.3442586714285709E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.372543E-2</v>
+        <v>6.3016846142857144E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.3985316476190476E-2</v>
+        <v>6.2951699380952381E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6.3067284380952382E-2</v>
+        <v>6.2927803619047623E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -809,32 +809,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.4149150285714296E-2</v>
+        <v>7.8178681285714285E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.3734930809523804E-2</v>
+        <v>6.3442586714285709E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.372543E-2</v>
+        <v>6.3016846142857144E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.3985316476190476E-2</v>
+        <v>6.2951699380952381E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6.3067284380952382E-2</v>
+        <v>6.2927803619047623E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6.3625768142857142E-2</v>
+        <v>6.5036156476190474E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -875,37 +875,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.4149150285714296E-2</v>
+        <v>7.8178681285714285E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.3734930809523804E-2</v>
+        <v>6.3442586714285709E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.372543E-2</v>
+        <v>6.3016846142857144E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.3985316476190476E-2</v>
+        <v>6.2951699380952381E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6.3067284380952382E-2</v>
+        <v>6.2927803619047623E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6.3625768142857142E-2</v>
+        <v>6.5036156476190474E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6.3425571238095238E-2</v>
+        <v>6.7604472285714284E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -941,42 +941,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.4149150285714296E-2</v>
+        <v>7.8178681285714285E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.3734930809523804E-2</v>
+        <v>6.3442586714285709E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.372543E-2</v>
+        <v>6.3016846142857144E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.3985316476190476E-2</v>
+        <v>6.2951699380952381E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6.3067284380952382E-2</v>
+        <v>6.2927803619047623E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6.3625768142857142E-2</v>
+        <v>6.5036156476190474E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6.3425571238095238E-2</v>
+        <v>6.7604472285714284E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6.3364697666666664E-2</v>
+        <v>6.8259475428571428E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -1007,47 +1007,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.4149150285714296E-2</v>
+        <v>7.8178681285714285E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.3734930809523804E-2</v>
+        <v>6.3442586714285709E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.372543E-2</v>
+        <v>6.3016846142857144E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.3985316476190476E-2</v>
+        <v>6.2951699380952381E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6.3067284380952382E-2</v>
+        <v>6.2927803619047623E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6.3625768142857142E-2</v>
+        <v>6.5036156476190474E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6.3425571238095238E-2</v>
+        <v>6.7604472285714284E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6.3364697666666664E-2</v>
+        <v>6.8259475428571428E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>6.3225491952380961E-2</v>
+        <v>6.9514804571428571E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">

--- a/NSGA-II_results/delay_average_results.xlsx
+++ b/NSGA-II_results/delay_average_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A2B9E9-7EDD-4F1E-B856-9B1AE041B884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723F7C3C-7D4E-492E-81C2-718C162B727B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{9B589974-B20C-469C-AD6E-9534666D6263}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.8178681285714285E-2</v>
+        <v>0.10572632414285714</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
@@ -479,52 +479,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.8178681285714285E-2</v>
+        <v>0.10572632414285714</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.3442586714285709E-2</v>
+        <v>7.8876148523809517E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.3016846142857144E-2</v>
+        <v>7.8488697428571425E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.2951699380952381E-2</v>
+        <v>7.8928228904761907E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6.2927803619047623E-2</v>
+        <v>7.9198346095238098E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6.5036156476190474E-2</v>
+        <v>7.8788027857142853E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6.7604472285714284E-2</v>
+        <v>7.8963833666666663E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6.8259475428571428E-2</v>
+        <v>7.8749481761904772E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>6.9514804571428571E-2</v>
+        <v>7.9402212619047619E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>6.9077050190476191E-2</v>
+        <v>8.0105107000000009E-2</v>
       </c>
     </row>
   </sheetData>
@@ -545,12 +545,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.8178681285714285E-2</v>
+        <v>0.10572632414285714</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.3442586714285709E-2</v>
+        <v>7.8876148523809517E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -611,17 +611,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.8178681285714285E-2</v>
+        <v>0.10572632414285714</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.3442586714285709E-2</v>
+        <v>7.8876148523809517E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.3016846142857144E-2</v>
+        <v>7.8488697428571425E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -677,22 +677,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.8178681285714285E-2</v>
+        <v>0.10572632414285714</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.3442586714285709E-2</v>
+        <v>7.8876148523809517E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.3016846142857144E-2</v>
+        <v>7.8488697428571425E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.2951699380952381E-2</v>
+        <v>7.8928228904761907E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -743,27 +743,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.8178681285714285E-2</v>
+        <v>0.10572632414285714</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.3442586714285709E-2</v>
+        <v>7.8876148523809517E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.3016846142857144E-2</v>
+        <v>7.8488697428571425E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.2951699380952381E-2</v>
+        <v>7.8928228904761907E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6.2927803619047623E-2</v>
+        <v>7.9198346095238098E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -809,32 +809,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.8178681285714285E-2</v>
+        <v>0.10572632414285714</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.3442586714285709E-2</v>
+        <v>7.8876148523809517E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.3016846142857144E-2</v>
+        <v>7.8488697428571425E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.2951699380952381E-2</v>
+        <v>7.8928228904761907E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6.2927803619047623E-2</v>
+        <v>7.9198346095238098E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6.5036156476190474E-2</v>
+        <v>7.8788027857142853E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -875,37 +875,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.8178681285714285E-2</v>
+        <v>0.10572632414285714</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.3442586714285709E-2</v>
+        <v>7.8876148523809517E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.3016846142857144E-2</v>
+        <v>7.8488697428571425E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.2951699380952381E-2</v>
+        <v>7.8928228904761907E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6.2927803619047623E-2</v>
+        <v>7.9198346095238098E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6.5036156476190474E-2</v>
+        <v>7.8788027857142853E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6.7604472285714284E-2</v>
+        <v>7.8963833666666663E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -941,42 +941,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.8178681285714285E-2</v>
+        <v>0.10572632414285714</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.3442586714285709E-2</v>
+        <v>7.8876148523809517E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.3016846142857144E-2</v>
+        <v>7.8488697428571425E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.2951699380952381E-2</v>
+        <v>7.8928228904761907E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6.2927803619047623E-2</v>
+        <v>7.9198346095238098E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6.5036156476190474E-2</v>
+        <v>7.8788027857142853E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6.7604472285714284E-2</v>
+        <v>7.8963833666666663E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6.8259475428571428E-2</v>
+        <v>7.8749481761904772E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -1007,47 +1007,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>7.8178681285714285E-2</v>
+        <v>0.10572632414285714</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>6.3442586714285709E-2</v>
+        <v>7.8876148523809517E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>6.3016846142857144E-2</v>
+        <v>7.8488697428571425E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>6.2951699380952381E-2</v>
+        <v>7.8928228904761907E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>6.2927803619047623E-2</v>
+        <v>7.9198346095238098E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>6.5036156476190474E-2</v>
+        <v>7.8788027857142853E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6.7604472285714284E-2</v>
+        <v>7.8963833666666663E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6.8259475428571428E-2</v>
+        <v>7.8749481761904772E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>6.9514804571428571E-2</v>
+        <v>7.9402212619047619E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">

--- a/NSGA-II_results/delay_average_results.xlsx
+++ b/NSGA-II_results/delay_average_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{723F7C3C-7D4E-492E-81C2-718C162B727B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06A8105-080C-4801-87E8-5E9BBF4EA7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="2895" windowWidth="28800" windowHeight="15345" activeTab="9" xr2:uid="{9B589974-B20C-469C-AD6E-9534666D6263}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" xr2:uid="{916EC41A-21B3-4D83-B85C-BAB792124C04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{469A6C80-07CD-4BA2-9A50-F5E55A5D327D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{053C6BD6-851D-47EC-8A4A-E997B8C7849E}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>8.0542270999999999E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4BFC6C-B359-436E-9CD4-248DDA6EFE75}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -413,52 +477,52 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.10572632414285714</v>
+        <v>7.9633158380952376E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>7.9486729666666658E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0</v>
+        <v>7.9210436142857138E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0</v>
+        <v>7.9152864095238085E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0</v>
+        <v>7.9158803285714285E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0</v>
+        <v>7.9222205904761894E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0</v>
+        <v>7.9224237714285717E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0</v>
+        <v>7.9091795809523802E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>0</v>
+        <v>7.9510068904761907E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0</v>
+        <v>7.9818211428571428E-2</v>
       </c>
     </row>
   </sheetData>
@@ -467,74 +531,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15249AE9-FD08-4282-8DEA-BA1AC0AAC9B8}">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>0.10572632414285714</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>7.8876148523809517E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>7.8488697428571425E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>7.8928228904761907E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>7.9198346095238098E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>7.8788027857142853E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>7.8963833666666663E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7.8749481761904772E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7.9402212619047619E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8.0105107000000009E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D475C415-6DDC-4F51-913E-BA1A5F670F0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82389329-E71F-49C6-A1AA-5984E866C592}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -545,12 +543,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.10572632414285714</v>
+        <v>7.9633158380952376E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>7.8876148523809517E-2</v>
+        <v>7.9486729666666658E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
@@ -600,7 +598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE82CD1-85A8-4D6D-BF68-15613A913442}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BED12B1-92E4-4139-BCE1-59DEEA7A4B6A}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -611,17 +609,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.10572632414285714</v>
+        <v>7.9633158380952376E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>7.8876148523809517E-2</v>
+        <v>7.9486729666666658E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.8488697428571425E-2</v>
+        <v>7.9210436142857138E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
@@ -666,7 +664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A5F470-B0B0-4633-BD07-0DF6ECCEA997}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9677ADB-EFA8-456C-9D95-C664102F6B9C}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -677,22 +675,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.10572632414285714</v>
+        <v>7.9633158380952376E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>7.8876148523809517E-2</v>
+        <v>7.9486729666666658E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.8488697428571425E-2</v>
+        <v>7.9210436142857138E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>7.8928228904761907E-2</v>
+        <v>7.9152864095238085E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
@@ -732,7 +730,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F280508-FED1-473F-BDCE-E9CD1D7F0104}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED91E713-8648-48E2-A6B9-425460A467D2}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -743,27 +741,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.10572632414285714</v>
+        <v>7.9633158380952376E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>7.8876148523809517E-2</v>
+        <v>7.9486729666666658E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.8488697428571425E-2</v>
+        <v>7.9210436142857138E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>7.8928228904761907E-2</v>
+        <v>7.9152864095238085E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>7.9198346095238098E-2</v>
+        <v>7.9158803285714285E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
@@ -798,7 +796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FF502C4-29DA-4C63-BE86-30D38C4B6797}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2161965-4DFC-4C40-BC5E-4943851542FA}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -809,32 +807,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.10572632414285714</v>
+        <v>7.9633158380952376E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>7.8876148523809517E-2</v>
+        <v>7.9486729666666658E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.8488697428571425E-2</v>
+        <v>7.9210436142857138E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>7.8928228904761907E-2</v>
+        <v>7.9152864095238085E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>7.9198346095238098E-2</v>
+        <v>7.9158803285714285E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>7.8788027857142853E-2</v>
+        <v>7.9222205904761894E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
@@ -864,7 +862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF6948A-CB30-4828-BA05-AEC2AB1EF4E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{242E9CD7-0D9C-456F-9436-948C9D3ECEF2}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -875,37 +873,37 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.10572632414285714</v>
+        <v>7.9633158380952376E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>7.8876148523809517E-2</v>
+        <v>7.9486729666666658E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.8488697428571425E-2</v>
+        <v>7.9210436142857138E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>7.8928228904761907E-2</v>
+        <v>7.9152864095238085E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>7.9198346095238098E-2</v>
+        <v>7.9158803285714285E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>7.8788027857142853E-2</v>
+        <v>7.9222205904761894E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7.8963833666666663E-2</v>
+        <v>7.9224237714285717E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
@@ -930,7 +928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35042B9B-ED0A-43D1-8906-B0E728D35FE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3EE828-6642-4980-BC6F-8EC970CE2E69}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -941,42 +939,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.10572632414285714</v>
+        <v>7.9633158380952376E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>7.8876148523809517E-2</v>
+        <v>7.9486729666666658E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.8488697428571425E-2</v>
+        <v>7.9210436142857138E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>7.8928228904761907E-2</v>
+        <v>7.9152864095238085E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>7.9198346095238098E-2</v>
+        <v>7.9158803285714285E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>7.8788027857142853E-2</v>
+        <v>7.9222205904761894E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7.8963833666666663E-2</v>
+        <v>7.9224237714285717E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7.8749481761904772E-2</v>
+        <v>7.9091795809523802E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
@@ -996,7 +994,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5EA4FBD-2041-4405-8414-245C8118EDCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B151C3-2305-45FE-988E-ADF4BB6F049A}">
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1007,47 +1005,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1">
-        <v>0.10572632414285714</v>
+        <v>7.9633158380952376E-2</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>7.8876148523809517E-2</v>
+        <v>7.9486729666666658E-2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>7.8488697428571425E-2</v>
+        <v>7.9210436142857138E-2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>7.8928228904761907E-2</v>
+        <v>7.9152864095238085E-2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>7.9198346095238098E-2</v>
+        <v>7.9158803285714285E-2</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>7.8788027857142853E-2</v>
+        <v>7.9222205904761894E-2</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>7.8963833666666663E-2</v>
+        <v>7.9224237714285717E-2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7.8749481761904772E-2</v>
+        <v>7.9091795809523802E-2</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7.9402212619047619E-2</v>
+        <v>7.9510068904761907E-2</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.2">

--- a/NSGA-II_results/delay_average_results.xlsx
+++ b/NSGA-II_results/delay_average_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\papper\iov\code-for-iov_modify\NSGA-II_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06A8105-080C-4801-87E8-5E9BBF4EA7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF35414-1996-40B4-9F0B-D5127DBB2815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15345" xr2:uid="{916EC41A-21B3-4D83-B85C-BAB792124C04}"/>
+    <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{916EC41A-21B3-4D83-B85C-BAB792124C04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -407,54 +405,54 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>8.0542270999999999E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+        <v>9.7552836809523813E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -473,54 +471,54 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>7.9633158380952376E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>7.9486729666666658E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>7.9210436142857138E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>7.9152864095238085E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>7.9158803285714285E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>7.9222205904761894E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7.9224237714285717E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7.9091795809523802E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7.9510068904761907E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>7.9818211428571428E-2</v>
       </c>
@@ -539,54 +537,54 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>7.9633158380952376E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>7.9486729666666658E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -605,54 +603,54 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>7.9633158380952376E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>7.9486729666666658E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>7.9210436142857138E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -671,54 +669,54 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>7.9633158380952376E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>7.9486729666666658E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>7.9210436142857138E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>7.9152864095238085E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -737,54 +735,54 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>7.9633158380952376E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>7.9486729666666658E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>7.9210436142857138E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>7.9152864095238085E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>7.9158803285714285E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -803,54 +801,54 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>7.9633158380952376E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>7.9486729666666658E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>7.9210436142857138E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>7.9152864095238085E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>7.9158803285714285E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>7.9222205904761894E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -869,54 +867,54 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>7.9633158380952376E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>7.9486729666666658E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>7.9210436142857138E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>7.9152864095238085E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>7.9158803285714285E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>7.9222205904761894E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7.9224237714285717E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -935,54 +933,54 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>7.9633158380952376E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>7.9486729666666658E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>7.9210436142857138E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>7.9152864095238085E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>7.9158803285714285E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>7.9222205904761894E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7.9224237714285717E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7.9091795809523802E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1001,54 +999,54 @@
       <selection sqref="A1:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>7.9633158380952376E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>7.9486729666666658E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>7.9210436142857138E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>7.9152864095238085E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>7.9158803285714285E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>7.9222205904761894E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7.9224237714285717E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7.9091795809523802E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7.9510068904761907E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>

--- a/NSGA-II_results/delay_average_results.xlsx
+++ b/NSGA-II_results/delay_average_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\研究生学习\papper\IOV\code-for-iov_modify\NSGA-II_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF35414-1996-40B4-9F0B-D5127DBB2815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751136A0-5B17-4D34-BA60-DE7E6AE5A745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4920" yWindow="885" windowWidth="16200" windowHeight="9983" xr2:uid="{916EC41A-21B3-4D83-B85C-BAB792124C04}"/>
   </bookViews>
@@ -409,7 +409,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>9.7552836809523813E-2</v>
+        <v>0.10072616709523809</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
